--- a/Chapter_04/Chapter_4_Table_S4.9.xlsx
+++ b/Chapter_04/Chapter_4_Table_S4.9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crtuser\OneDrive - National University of Ireland, Galway\Desktop\Dropbox\@John O'Grady\@Thesis\Supplementary\Chapter_04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5F5DE1A-23EC-4043-AE1F-FBE69E31A266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D31A625-7737-427D-9E78-355A8E87043B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49170" yWindow="-1830" windowWidth="29040" windowHeight="15720" xr2:uid="{74F1D27D-698C-41F7-A55B-E8FE1B7A08A5}"/>
+    <workbookView xWindow="20370" yWindow="-1815" windowWidth="29040" windowHeight="15720" xr2:uid="{344E108E-6E89-4A89-8052-D9F7F181430A}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter_4_Table_S4.9" sheetId="1" r:id="rId1"/>
@@ -94,17 +94,21 @@
     <t>RF-ET</t>
   </si>
   <si>
+    <t>MLP</t>
+  </si>
+  <si>
     <t>NB</t>
-  </si>
-  <si>
-    <t>MLP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,16 +134,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -173,10 +167,8 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -199,6 +191,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="165" formatCode="0.000"/>
     </dxf>
     <dxf>
       <font>
@@ -217,6 +210,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="165" formatCode="0.000"/>
     </dxf>
     <dxf>
       <font>
@@ -235,6 +229,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="165" formatCode="0.000"/>
     </dxf>
     <dxf>
       <font>
@@ -253,6 +248,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="164" formatCode="0.000000"/>
     </dxf>
     <dxf>
       <font>
@@ -322,14 +318,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F52C8523-8CEB-452D-AE2A-3C59C1D47E67}" name="Table9" displayName="Table9" ref="A2:E10" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8EF24DC5-7D4F-45EA-B663-DCDE09A98081}" name="Table9" displayName="Table9" ref="A2:E10" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A2:E10" xr:uid="{64855366-7EC2-4360-A01D-4A555F5158BB}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{43A2476D-06D1-485A-A904-747F747BDA10}" name="Model" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00C6A7DD-E00E-4287-AA43-A2B69D079BA5}" name="Probability threshold" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{360962E6-DBD5-42AB-9A10-684303CCC8DE}" name="Specificity" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{79776BE0-B489-41D2-9534-59694E610273}" name="Sensitivity" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{5F7F8E5E-4A87-43EF-B207-24ED90772204}" name="Combined" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{2423CBDF-2170-4080-A264-3EA50767458B}" name="Model" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{21D2C51E-C251-4D6F-AB5C-DA1E74D953D7}" name="Probability threshold" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{E67DEE1B-849B-4F7D-9555-A29ECF517504}" name="Specificity" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{06B783B5-141F-444A-AE55-26FC5F67AD40}" name="Sensitivity" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{3F806E37-A41C-4BF7-BCCD-CBE73DDD7836}" name="Combined" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -651,12 +647,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31029855-D615-4A84-8620-0D55A787CF0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49EFA005-8E15-4531-8C92-774D4357003B}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,7 +682,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -703,140 +699,140 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.14705879999999999</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.79411759999999998</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0.94117649999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+        <v>2.7408798857587601E-4</v>
+      </c>
+      <c r="C3" s="5">
+        <v>8.8235294117647106E-2</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.94117647058823495</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1.02941176470588</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5">
-        <v>0.64190849999999999</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.85294119999999995</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.91176469999999998</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1.7647060000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="B4" s="4">
+        <v>0.60788337414748095</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.82352941176470595</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.91176470588235303</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1.73529411764706</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5">
-        <v>0.90715520000000005</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.76470590000000005</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.94117649999999997</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1.7058819999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="B5" s="4">
+        <v>0.86358215201696398</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.88235294117647101</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.91176470588235303</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1.79411764705882</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5">
-        <v>0.90992289999999998</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.85294119999999995</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.94117649999999997</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1.7941100000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="B6" s="4">
+        <v>0.82633765365648904</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.85294117647058798</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.94117647058823495</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1.79411764705882</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="5">
-        <v>0.57984029999999998</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.85294119999999995</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.91176469999999998</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1.7647060000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="B7" s="4">
+        <v>0.54138925876609001</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.85294117647058798</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.91176470588235303</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1.76470588235294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="5">
-        <v>0.52063910000000002</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0.79411759999999998</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.91176469999999998</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1.7058819999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="B8" s="4">
+        <v>0.55339886704431895</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.88235294117647101</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.91176470588235303</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1.79411764705882</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="5">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0.47058820000000001</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.97058820000000001</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1.441176</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="B9" s="4">
+        <v>0.96226972198373695</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.88235294117647101</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.91176470588235303</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1.79411764705882</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="5">
-        <v>0.80918369999999995</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0.79411759999999998</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.91176469999999998</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1.7058819999999999</v>
+      <c r="B10" s="4">
+        <v>0.99999095161059204</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.70588235294117696</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.91176470588235303</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1.6176470588235301</v>
       </c>
     </row>
   </sheetData>
